--- a/Dungeons And Dragons stuff/Characters/stats by race.xlsx
+++ b/Dungeons And Dragons stuff/Characters/stats by race.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\awtor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\awtor\Antonius-Personal\Dungeons And Dragons stuff\Characters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0387AB1C-A4FF-44BF-848C-32D4B542E392}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77469D12-494B-401C-8250-54740FE42250}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="960" windowWidth="11895" windowHeight="14790" xr2:uid="{C5BA1E9E-BE21-422B-B8FC-6DCE84E48FCE}"/>
+    <workbookView xWindow="2340" yWindow="960" windowWidth="26445" windowHeight="14790" xr2:uid="{C5BA1E9E-BE21-422B-B8FC-6DCE84E48FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Ability Score Rolls</t>
   </si>
@@ -123,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +133,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,10 +167,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,16 +488,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28066513-2672-4A96-8926-BDB2F48D4EA8}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -663,63 +698,63 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <f>B2+C2</f>
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <f>B2+D2</f>
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f>B2+E2</f>
-        <v>0</v>
-      </c>
-      <c r="F10">
+    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" ref="C10:C15" si="0">B2+C2</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D15" si="1">B2+D2</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" ref="E10:E15" si="2">B2+E2</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <f>B2+F2</f>
         <v>0</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <f>B2+G2</f>
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <f>B2+H2</f>
         <v>2</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <f>B2+I2</f>
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <f>B2+J2</f>
         <v>0</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <f>B2+K2</f>
         <v>2</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <f>B2+L2</f>
         <v>0</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <f>B2+M2</f>
         <v>0</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <f>B2+N2</f>
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <f>B2+O2</f>
         <v>2</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <f>B2+P2</f>
         <v>0</v>
       </c>
@@ -729,120 +764,120 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <f>B3+C3</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D11">
-        <f>B3+D3</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E11">
-        <f>B3+E3</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F15" si="0">B3+F3</f>
+        <f t="shared" ref="F11:F15" si="3">B3+F3</f>
         <v>2</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:G15" si="1">B3+G3</f>
+        <f t="shared" ref="G11:G15" si="4">B3+G3</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H15" si="2">B3+H3</f>
+        <f t="shared" ref="H11:H15" si="5">B3+H3</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I15" si="3">B3+I3</f>
+        <f t="shared" ref="I11:I15" si="6">B3+I3</f>
         <v>2</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11:J15" si="4">B3+J3</f>
+        <f t="shared" ref="J11:J15" si="7">B3+J3</f>
         <v>2</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11:K15" si="5">B3+K3</f>
+        <f t="shared" ref="K11:K15" si="8">B3+K3</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L15" si="6">B3+L3</f>
+        <f t="shared" ref="L11:L15" si="9">B3+L3</f>
         <v>1</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11:M15" si="7">B3+M3</f>
+        <f t="shared" ref="M11:M15" si="10">B3+M3</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" ref="N11:N15" si="8">B3+N3</f>
+        <f t="shared" ref="N11:N15" si="11">B3+N3</f>
         <v>0</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11:O15" si="9">B3+O3</f>
+        <f t="shared" ref="O11:O15" si="12">B3+O3</f>
         <v>0</v>
       </c>
       <c r="P11">
-        <f t="shared" ref="P11:P15" si="10">B3+P3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <f>B4+C4</f>
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <f>B4+D4</f>
-        <v>0</v>
-      </c>
-      <c r="E12">
+        <f t="shared" ref="P11:P15" si="13">B3+P3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
         <f>B4+E4</f>
         <v>0</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I12">
+      <c r="F12" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J12">
+      <c r="G12" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M12">
+      <c r="J12" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N12">
+      <c r="K12" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O12">
+      <c r="L12" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
         <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -851,19 +886,19 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <f>B5+C5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D13">
-        <f>B5+D5</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E13">
-        <f>B5+E5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G13">
@@ -871,100 +906,100 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J13">
+      <c r="G14" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="M13">
+      <c r="I14" s="5">
+        <f>B6+I6</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O13">
+      <c r="L14" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P13">
+      <c r="M14" s="5">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <f>B6+C6</f>
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <f>B6+D6</f>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f>B6+E6</f>
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f>B6+I6</f>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -973,59 +1008,59 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f>B7+C7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D15">
-        <f>B7+D7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f>B7+E7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="L15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="O15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
@@ -1038,56 +1073,117 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:P16" si="11">D8</f>
+        <f t="shared" ref="D16:P16" si="14">D8</f>
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="O16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P16">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <f>SUM(C10:C16)</f>
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:P17" si="15">SUM(D10:D16)</f>
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Dungeons And Dragons stuff/Characters/stats by race.xlsx
+++ b/Dungeons And Dragons stuff/Characters/stats by race.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\awtor\Antonius-Personal\Dungeons And Dragons stuff\Characters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77469D12-494B-401C-8250-54740FE42250}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A607AEB7-5EEF-421B-8013-A3D4B6E0EDB6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="960" windowWidth="26445" windowHeight="14790" xr2:uid="{C5BA1E9E-BE21-422B-B8FC-6DCE84E48FCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C5BA1E9E-BE21-422B-B8FC-6DCE84E48FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,6 +566,9 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
       <c r="C2">
         <v>1</v>
       </c>
@@ -582,6 +585,9 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -609,6 +615,9 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
       <c r="C4">
         <v>1</v>
       </c>
@@ -632,6 +641,9 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
       <c r="C5">
         <v>1</v>
       </c>
@@ -652,6 +664,9 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
       <c r="C6">
         <v>1</v>
       </c>
@@ -666,6 +681,9 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
       <c r="C7">
         <v>1</v>
       </c>
@@ -704,59 +722,59 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ref="C10:C15" si="0">B2+C2</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ref="D10:D15" si="1">B2+D2</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ref="E10:E15" si="2">B2+E2</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F10" s="3">
         <f>B2+F2</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G10" s="3">
         <f>B2+G2</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H10" s="3">
         <f>B2+H2</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I10" s="3">
         <f>B2+I2</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J10" s="3">
         <f>B2+J2</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K10" s="3">
         <f>B2+K2</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L10" s="3">
         <f>B2+L2</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M10" s="3">
         <f>B2+M2</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N10" s="3">
         <f>B2+N2</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O10" s="3">
         <f>B2+O2</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="P10" s="3">
         <f>B2+P2</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -765,59 +783,59 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <f t="shared" ref="F11:F15" si="3">B3+F3</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G15" si="4">B3+G3</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <f t="shared" ref="H11:H15" si="5">B3+H3</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I11">
         <f t="shared" ref="I11:I15" si="6">B3+I3</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J11">
         <f t="shared" ref="J11:J15" si="7">B3+J3</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K11">
         <f t="shared" ref="K11:K15" si="8">B3+K3</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L11">
         <f t="shared" ref="L11:L15" si="9">B3+L3</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M11">
         <f t="shared" ref="M11:M15" si="10">B3+M3</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N11">
         <f t="shared" ref="N11:N15" si="11">B3+N3</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O11">
         <f t="shared" ref="O11:O15" si="12">B3+O3</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P11">
         <f t="shared" ref="P11:P15" si="13">B3+P3</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -826,59 +844,59 @@
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E12" s="4">
         <f>B4+E4</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -887,59 +905,59 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G13">
         <f>B5+G5</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I13">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J13">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K13">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L13">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M13">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N13">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O13">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P13">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -948,59 +966,59 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I14" s="5">
         <f>B6+I6</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K14" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M14" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N14" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O14" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P14" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1009,59 +1027,59 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I15">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L15">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M15">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N15">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O15">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P15">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1131,59 +1149,59 @@
       </c>
       <c r="C17">
         <f>SUM(C10:C16)</f>
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:P17" si="15">SUM(D10:D16)</f>
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="E17">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="F17">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="G17">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="H17">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="I17">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="J17">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="K17">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="L17">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="M17">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="N17">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="O17">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="P17">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
